--- a/module-6/DM.xlsx
+++ b/module-6/DM.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Academic Courses\EEE446\Labaratories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\METU-NCC-Computer-Architecture\documents\module-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFE7068-35F0-416C-9C75-B36E3F23985D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6925462-8868-4BC7-BF0C-A65F2140AE51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PART1" sheetId="1" r:id="rId1"/>
+    <sheet name="PART2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -373,7 +374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -785,7 +786,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4">
-        <f t="shared" ref="B33:B41" si="1">B4+B14-B24</f>
+        <f t="shared" ref="B34:B41" si="1">B4+B14-B24</f>
         <v>-7</v>
       </c>
       <c r="C34" s="4" t="str">
@@ -882,6 +883,161 @@
       <c r="C41" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D79066F-3458-4C26-8832-AB4A4FB9F0BA}">
+  <dimension ref="A1:A28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/module-6/DM.xlsx
+++ b/module-6/DM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\METU-NCC-Computer-Architecture\documents\module-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6925462-8868-4BC7-BF0C-A65F2140AE51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E984892-9D95-41DF-B743-6A9CFA52F9B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -892,152 +892,436 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D79066F-3458-4C26-8832-AB4A4FB9F0BA}">
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1001000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1100101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1101100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1101100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1101111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1100110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1110010</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1101111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1101101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>1100011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1101111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1101101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>1110000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>101110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>1100001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>1110010</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>1100011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>101110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>1010100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1101000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1101001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1110011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1101001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1110011</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1101100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1100001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1110011</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1110100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>1110011</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1101001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1101101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1110101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1101100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>1100001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>1110100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>1101001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>1101111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>1101110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>101110</v>
       </c>
     </row>
   </sheetData>

--- a/module-6/DM.xlsx
+++ b/module-6/DM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\METU-NCC-Computer-Architecture\documents\module-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E984892-9D95-41DF-B743-6A9CFA52F9B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6296F6-1903-4A08-AA27-00D0426A89FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -892,436 +892,860 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D79066F-3458-4C26-8832-AB4A4FB9F0BA}">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="str">
+        <f>BIN2HEX(B1)</f>
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <f>BIN2DEC(B1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C53" si="0">BIN2HEX(B2)</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D53" si="1">BIN2DEC(B2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1001000</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>1100101</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>1101100</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>6C</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>1101100</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>6C</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>1101111</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>6F</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>100000</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>1100110</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>1110010</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>1101111</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>6F</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>1101101</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>6D</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>100000</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>100000</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>1100011</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>1101111</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>6F</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>1101101</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>6D</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>1110000</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>101110</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>2E</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>100000</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>1100001</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>1110010</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>1100011</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>101110</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>2E</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>100000</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>1010</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <v>1010100</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <v>1101000</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>1101001</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <v>1110011</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
         <v>100000</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
         <v>1101001</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <v>1110011</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
         <v>100000</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
         <v>100000</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
         <v>1010</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
         <v>1010</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
         <v>1101100</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>6C</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
         <v>1100001</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
         <v>1110011</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
         <v>1110100</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
         <v>100000</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
         <v>1110011</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
         <v>1101001</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
         <v>1101101</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>6D</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
         <v>1110101</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
         <v>1101100</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>6C</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
         <v>1100001</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
         <v>1110100</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
         <v>1101001</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
         <v>1101111</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>6F</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
         <v>1101110</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>6E</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
         <v>101110</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>2E</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/module-6/DM.xlsx
+++ b/module-6/DM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\METU-NCC-Computer-Architecture\documents\module-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6296F6-1903-4A08-AA27-00D0426A89FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A913E6-D94A-4DED-90FD-C517EBAA68BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -892,15 +892,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D79066F-3458-4C26-8832-AB4A4FB9F0BA}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -915,8 +915,11 @@
         <f>BIN2DEC(B1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -924,15 +927,18 @@
         <v>0</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C53" si="0">BIN2HEX(B2)</f>
+        <f t="shared" ref="C2:E53" si="0">BIN2HEX(B2)</f>
         <v>0</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D53" si="1">BIN2DEC(B2)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -940,15 +946,18 @@
         <v>1001000</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" si="0"/>
+        <f>BIN2HEX(B3)</f>
         <v>48</v>
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -963,8 +972,11 @@
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -979,8 +991,11 @@
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -995,8 +1010,11 @@
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1011,8 +1029,11 @@
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1027,8 +1048,11 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1043,8 +1067,11 @@
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1060,7 +1087,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1076,7 +1103,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1092,7 +1119,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1108,7 +1135,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1124,7 +1151,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1140,7 +1167,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>

--- a/module-6/DM.xlsx
+++ b/module-6/DM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\METU-NCC-Computer-Architecture\documents\module-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A913E6-D94A-4DED-90FD-C517EBAA68BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9C9C21-9F29-45A2-BE08-F06DF5B6C93F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17955" yWindow="3675" windowWidth="21600" windowHeight="8370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PART1" sheetId="1" r:id="rId1"/>
@@ -892,15 +892,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D79066F-3458-4C26-8832-AB4A4FB9F0BA}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -915,11 +915,8 @@
         <f>BIN2DEC(B1)</f>
         <v>0</v>
       </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -927,18 +924,15 @@
         <v>0</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:E53" si="0">BIN2HEX(B2)</f>
+        <f t="shared" ref="C2:C53" si="0">BIN2HEX(B2)</f>
         <v>0</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D53" si="1">BIN2DEC(B2)</f>
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -953,11 +947,8 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="E3">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -972,11 +963,8 @@
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="E4">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -991,11 +979,8 @@
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="E5">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1010,11 +995,8 @@
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="E6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1029,11 +1011,8 @@
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1048,11 +1027,8 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="E8">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1067,11 +1043,8 @@
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1087,7 +1060,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1103,7 +1076,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1119,7 +1092,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1135,52 +1108,52 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>100000</v>
+        <v>1010011</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1100011</v>
+        <v>1100001</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1101111</v>
+        <v>1100001</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>6F</v>
+        <v>61</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1188,15 +1161,15 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1101101</v>
+        <v>1100100</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>6D</v>
+        <v>64</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1204,15 +1177,15 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1110000</v>
+        <v>100000</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>112</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1220,15 +1193,15 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>101110</v>
+        <v>1100001</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
-        <v>2E</v>
+        <v>61</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1236,15 +1209,15 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>100000</v>
+        <v>1101110</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>6E</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1252,15 +1225,15 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1100001</v>
+        <v>1100100</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1268,15 +1241,15 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1110010</v>
+        <v>100000</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>114</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1284,15 +1257,15 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1100011</v>
+        <v>1000100</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>99</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1300,15 +1273,15 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>101110</v>
+        <v>1101111</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
-        <v>2E</v>
+        <v>6F</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1316,15 +1289,15 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>100000</v>
+        <v>11000100</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>C4</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1332,15 +1305,15 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1010</v>
+        <v>10011111</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
-        <v>A</v>
+        <v>9F</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1348,15 +1321,15 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1010100</v>
+        <v>1110101</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1364,15 +1337,15 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1101000</v>
+        <v>1101011</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>6B</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1380,15 +1353,15 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1101001</v>
+        <v>1100001</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1396,383 +1369,314 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1110011</v>
+        <v>1101110</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>6E</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>100000</v>
-      </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>1101001</v>
-      </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>1110011</v>
-      </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>100000</v>
-      </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>100000</v>
-      </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>1010</v>
-      </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
-        <v>A</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>1010</v>
-      </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
-        <v>A</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>1101100</v>
-      </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
-        <v>6C</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>1100001</v>
-      </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>1110011</v>
-      </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>1110100</v>
-      </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42">
-        <v>100000</v>
-      </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43">
-        <v>1110011</v>
-      </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
-        <v>115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44">
-        <v>1101001</v>
-      </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45">
-        <v>1101101</v>
-      </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
-        <v>6D</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>1110101</v>
-      </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
-        <v>117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47">
-        <v>1101100</v>
-      </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
-        <v>6C</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>1100001</v>
-      </c>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49">
-        <v>1110100</v>
-      </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50">
-        <v>1101001</v>
-      </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51">
-        <v>1101111</v>
-      </c>
       <c r="C51" t="str">
         <f t="shared" si="0"/>
-        <v>6F</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52">
-        <v>1101110</v>
-      </c>
       <c r="C52" t="str">
         <f t="shared" si="0"/>
-        <v>6E</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53">
-        <v>101110</v>
-      </c>
       <c r="C53" t="str">
         <f t="shared" si="0"/>
-        <v>2E</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/module-6/DM.xlsx
+++ b/module-6/DM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\METU-NCC-Computer-Architecture\documents\module-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9C9C21-9F29-45A2-BE08-F06DF5B6C93F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182DB72B-3D9C-420F-95DB-DA16E313ADA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17955" yWindow="3675" windowWidth="21600" windowHeight="8370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PART1" sheetId="1" r:id="rId1"/>
@@ -895,7 +895,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/module-6/DM.xlsx
+++ b/module-6/DM.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\METU-NCC-Computer-Architecture\documents\module-6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saad Yousaf\Documents\GitHub\documents\module-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9C9C21-9F29-45A2-BE08-F06DF5B6C93F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3763A2-F3DC-4CA4-AE08-134E90D12AD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17955" yWindow="3675" windowWidth="21600" windowHeight="8370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PART1" sheetId="1" r:id="rId1"/>
     <sheet name="PART2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -378,12 +380,12 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
@@ -395,7 +397,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -407,7 +409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -419,7 +421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -431,7 +433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -443,7 +445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -455,7 +457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -467,7 +469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -479,7 +481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -491,7 +493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -503,7 +505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -515,7 +517,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -527,7 +529,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -539,7 +541,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -551,7 +553,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -563,7 +565,7 @@
         <v>E</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -575,7 +577,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -587,7 +589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -599,7 +601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -611,7 +613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -623,7 +625,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -635,7 +637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -647,7 +649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -659,7 +661,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -671,7 +673,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -683,7 +685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -695,7 +697,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -707,7 +709,7 @@
         <v>1A</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -719,7 +721,7 @@
         <v>1B</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -731,7 +733,7 @@
         <v>1C</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -743,7 +745,7 @@
         <v>1D</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -755,7 +757,7 @@
         <v>1E</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -768,7 +770,7 @@
         <v>FFFFFFFFF7</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -781,7 +783,7 @@
         <v>FFFFFFFFF8</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -794,7 +796,7 @@
         <v>FFFFFFFFF9</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -807,7 +809,7 @@
         <v>FFFFFFFFFA</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -820,7 +822,7 @@
         <v>FFFFFFFFFB</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -833,7 +835,7 @@
         <v>FFFFFFFFFC</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -846,7 +848,7 @@
         <v>FFFFFFFFFD</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -859,7 +861,7 @@
         <v>FFFFFFFFFE</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -872,7 +874,7 @@
         <v>FFFFFFFFFF</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -895,12 +897,12 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C29" sqref="C1:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
@@ -916,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -932,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -948,7 +950,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -964,7 +966,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -980,7 +982,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -996,7 +998,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1012,7 +1014,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1028,7 +1030,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1044,7 +1046,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1060,7 +1062,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1076,7 +1078,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1092,7 +1094,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1108,7 +1110,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1124,7 +1126,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1140,7 +1142,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1156,7 +1158,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1172,7 +1174,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1188,7 +1190,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1204,7 +1206,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1220,7 +1222,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1236,7 +1238,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1252,7 +1254,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1268,7 +1270,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1284,103 +1286,100 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>11000100</v>
+        <v>1100111</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
-        <v>C4</v>
+        <v>67</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>10011111</v>
+        <v>1110101</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
-        <v>9F</v>
+        <v>75</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1110101</v>
+        <v>1101011</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>6B</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1101011</v>
+        <v>1100001</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
-        <v>6B</v>
+        <v>61</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1100001</v>
+        <v>1101110</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>6E</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>1101110</v>
-      </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
-        <v>6E</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1393,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1406,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1419,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1432,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1445,7 +1444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1458,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1471,7 +1470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1484,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1497,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1510,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1523,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1536,7 +1535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1549,7 +1548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1562,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1575,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1588,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1601,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1614,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1627,7 +1626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1640,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1653,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1666,7 +1665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>

--- a/module-6/DM.xlsx
+++ b/module-6/DM.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\METU-NCC-Computer-Architecture\documents\module-6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saad Yousaf\Documents\GitHub\documents\module-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182DB72B-3D9C-420F-95DB-DA16E313ADA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838D4E83-149F-4953-9C9A-7AD298844748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PART1" sheetId="1" r:id="rId1"/>
     <sheet name="PART2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,11 +24,33 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+  <si>
+    <t>006C</t>
+  </si>
+  <si>
+    <t>006F</t>
+  </si>
+  <si>
+    <t>006D</t>
+  </si>
+  <si>
+    <t>006E</t>
+  </si>
+  <si>
+    <t>006B</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,12 +400,12 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
@@ -395,7 +417,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -407,7 +429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -419,7 +441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -431,7 +453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -443,7 +465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -455,7 +477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -467,7 +489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -479,7 +501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -491,7 +513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -503,7 +525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -515,7 +537,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -527,7 +549,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -539,7 +561,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -551,7 +573,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -563,7 +585,7 @@
         <v>E</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -575,7 +597,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -587,7 +609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -599,7 +621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -611,7 +633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -623,7 +645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -635,7 +657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -647,7 +669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -659,7 +681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -671,7 +693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -683,7 +705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -695,7 +717,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -707,7 +729,7 @@
         <v>1A</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -719,7 +741,7 @@
         <v>1B</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -731,7 +753,7 @@
         <v>1C</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -743,7 +765,7 @@
         <v>1D</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -755,7 +777,7 @@
         <v>1E</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -768,7 +790,7 @@
         <v>FFFFFFFFF7</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -781,7 +803,7 @@
         <v>FFFFFFFFF8</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -794,7 +816,7 @@
         <v>FFFFFFFFF9</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -807,7 +829,7 @@
         <v>FFFFFFFFFA</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -820,7 +842,7 @@
         <v>FFFFFFFFFB</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -833,7 +855,7 @@
         <v>FFFFFFFFFC</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -846,7 +868,7 @@
         <v>FFFFFFFFFD</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -859,7 +881,7 @@
         <v>FFFFFFFFFE</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -872,7 +894,7 @@
         <v>FFFFFFFFFF</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -892,15 +914,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D79066F-3458-4C26-8832-AB4A4FB9F0BA}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
@@ -915,8 +937,32 @@
         <f>BIN2DEC(B1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>48</v>
+      </c>
+      <c r="I1">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -931,8 +977,32 @@
         <f t="shared" ref="D2:D53" si="1">BIN2DEC(B2)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>31</v>
+      </c>
+      <c r="G2">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>33</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>66</v>
+      </c>
+      <c r="K2">
+        <v>72</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -947,8 +1017,32 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>33</v>
+      </c>
+      <c r="G3">
+        <v>32</v>
+      </c>
+      <c r="H3">
+        <v>31</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>53</v>
+      </c>
+      <c r="K3">
+        <v>61</v>
+      </c>
+      <c r="L3">
+        <v>61</v>
+      </c>
+      <c r="M3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -963,8 +1057,32 @@
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>64</v>
+      </c>
+      <c r="L4">
+        <v>20</v>
+      </c>
+      <c r="M4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -979,8 +1097,32 @@
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>67</v>
+      </c>
+      <c r="J5">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>61</v>
+      </c>
+      <c r="M5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -995,8 +1137,32 @@
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>45</v>
+      </c>
+      <c r="H6">
+        <v>45</v>
+      </c>
+      <c r="I6">
+        <v>45</v>
+      </c>
+      <c r="J6">
+        <v>34</v>
+      </c>
+      <c r="K6">
+        <v>34</v>
+      </c>
+      <c r="L6">
+        <v>36</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1011,8 +1177,11 @@
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1028,7 +1197,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1044,7 +1213,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1060,7 +1229,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1076,7 +1245,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1092,7 +1261,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1108,7 +1277,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1124,7 +1293,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1140,7 +1309,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1156,7 +1325,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1172,7 +1341,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1188,7 +1357,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1204,7 +1373,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1220,7 +1389,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1236,7 +1405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1252,7 +1421,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1268,7 +1437,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1284,7 +1453,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1300,7 +1469,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1316,7 +1485,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1332,7 +1501,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1348,7 +1517,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1364,7 +1533,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1380,7 +1549,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1393,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1406,7 +1575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1419,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1432,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1445,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1458,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1471,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1484,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1497,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1510,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1523,7 +1692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1536,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1549,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1562,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1575,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1588,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1601,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1614,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1627,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1640,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1653,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1666,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
